--- a/outputs-HGR-r202/g__Fusobacterium_A.xlsx
+++ b/outputs-HGR-r202/g__Fusobacterium_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,6 +538,48 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>even_MAG-GUT88709.fa</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>0.0304049206237368</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.161597507938726</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.05825845372263146</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.5462021742522614</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.01600084265842165</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.1448066637432346</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.008785886604111764</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.03287744805432928</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0.001066102402547167</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.5462021742522614</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>s__Fusobacterium_A sp900549465</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/outputs-HGR-r202/g__Fusobacterium_A.xlsx
+++ b/outputs-HGR-r202/g__Fusobacterium_A.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -495,6 +495,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -537,6 +542,11 @@
           <t>s__Fusobacterium_A sp900555485</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>s__Fusobacterium_A sp900555485(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -577,6 +587,11 @@
       <c r="L3" t="inlineStr">
         <is>
           <t>s__Fusobacterium_A sp900549465</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>s__Fusobacterium_A sp900549465(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-HGR-r202/g__Fusobacterium_A.xlsx
+++ b/outputs-HGR-r202/g__Fusobacterium_A.xlsx
@@ -544,7 +544,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>s__Fusobacterium_A sp900555485</t>
+          <t>s__Fusobacterium_A sp900555485(reject)</t>
         </is>
       </c>
     </row>
